--- a/team_specific_matrix/Drexel_B.xlsx
+++ b/team_specific_matrix/Drexel_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1630434782608696</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5978260869565217</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01630434782608696</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1358695652173913</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08695652173913043</v>
+        <v>0.09166666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03478260869565217</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01739130434782609</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6608695652173913</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2869565217391304</v>
+        <v>0.2517482517482518</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5789473684210527</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4210526315789473</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05405405405405406</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01081081081081081</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05945945945945946</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2702702702702703</v>
+        <v>0.2389380530973451</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02702702702702703</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1837837837837838</v>
+        <v>0.1814159292035398</v>
       </c>
       <c r="R6">
-        <v>0.06486486486486487</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="S6">
-        <v>0.3297297297297297</v>
+        <v>0.3451327433628318</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05921052631578947</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="E7">
-        <v>0.006578947368421052</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="F7">
-        <v>0.05921052631578947</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1381578947368421</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05263157894736842</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1842105263157895</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="R7">
-        <v>0.1052631578947368</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="S7">
-        <v>0.3947368421052632</v>
+        <v>0.4126984126984127</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06852791878172589</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01522842639593909</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.00205761316872428</v>
       </c>
       <c r="F8">
-        <v>0.06852791878172589</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1091370558375634</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02538071065989848</v>
+        <v>0.02263374485596708</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1928934010152284</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="R8">
-        <v>0.09644670050761421</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="S8">
-        <v>0.4238578680203046</v>
+        <v>0.411522633744856</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05555555555555555</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09722222222222222</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1597222222222222</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="R9">
-        <v>0.1111111111111111</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="S9">
-        <v>0.4652777777777778</v>
+        <v>0.4853801169590643</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09619686800894854</v>
+        <v>0.0971843778383288</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01006711409395973</v>
+        <v>0.0145322434150772</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07270693512304251</v>
+        <v>0.07356948228882834</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1174496644295302</v>
+        <v>0.1080835603996367</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01677852348993289</v>
+        <v>0.01544050862851953</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2170022371364653</v>
+        <v>0.2098092643051771</v>
       </c>
       <c r="R10">
-        <v>0.07941834451901567</v>
+        <v>0.07720254314259764</v>
       </c>
       <c r="S10">
-        <v>0.3903803131991052</v>
+        <v>0.4041780199818347</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1719457013574661</v>
+        <v>0.1684981684981685</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08597285067873303</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K11">
-        <v>0.2036199095022624</v>
+        <v>0.2014652014652015</v>
       </c>
       <c r="L11">
-        <v>0.5294117647058824</v>
+        <v>0.5457875457875457</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009049773755656109</v>
+        <v>0.007326007326007326</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7796610169491526</v>
+        <v>0.7748344370860927</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1694915254237288</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="K12">
-        <v>0.008474576271186441</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0423728813559322</v>
+        <v>0.05960264900662252</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2619047619047619</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02312138728323699</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1329479768786127</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I15">
-        <v>0.06358381502890173</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="J15">
-        <v>0.3757225433526011</v>
+        <v>0.3842592592592592</v>
       </c>
       <c r="K15">
-        <v>0.06358381502890173</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02890173410404624</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05780346820809248</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2543352601156069</v>
+        <v>0.2546296296296297</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01834862385321101</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1559633027522936</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="I16">
-        <v>0.09174311926605505</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="J16">
-        <v>0.3302752293577982</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="K16">
-        <v>0.1651376146788991</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009174311926605505</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04587155963302753</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1834862385321101</v>
+        <v>0.1805555555555556</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03081232492997199</v>
+        <v>0.02612826603325416</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2016806722689076</v>
+        <v>0.1971496437054632</v>
       </c>
       <c r="I17">
-        <v>0.08403361344537816</v>
+        <v>0.08788598574821853</v>
       </c>
       <c r="J17">
-        <v>0.3697478991596639</v>
+        <v>0.3752969121140142</v>
       </c>
       <c r="K17">
-        <v>0.08403361344537816</v>
+        <v>0.08551068883610451</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02521008403361345</v>
+        <v>0.02375296912114014</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06162464985994398</v>
+        <v>0.06888361045130641</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1428571428571428</v>
+        <v>0.1353919239904988</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006451612903225806</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1935483870967742</v>
+        <v>0.2154696132596685</v>
       </c>
       <c r="I18">
-        <v>0.09032258064516129</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="J18">
-        <v>0.3935483870967742</v>
+        <v>0.3867403314917127</v>
       </c>
       <c r="K18">
-        <v>0.1032258064516129</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03870967741935484</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="N18">
-        <v>0.006451612903225806</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="O18">
-        <v>0.04516129032258064</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1225806451612903</v>
+        <v>0.1215469613259668</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02121504339440694</v>
+        <v>0.02017067494181536</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2439729990356798</v>
+        <v>0.2451512800620636</v>
       </c>
       <c r="I19">
-        <v>0.07521697203471553</v>
+        <v>0.07214895267649341</v>
       </c>
       <c r="J19">
-        <v>0.3182256509161042</v>
+        <v>0.3328161365399535</v>
       </c>
       <c r="K19">
-        <v>0.09836065573770492</v>
+        <v>0.09930178432893716</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02121504339440694</v>
+        <v>0.02094647013188518</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07232401157184185</v>
+        <v>0.07137315748642359</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1494696239151398</v>
+        <v>0.1380915438324282</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Drexel_B.xlsx
+++ b/team_specific_matrix/Drexel_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1833333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008333333333333333</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09166666666666666</v>
+        <v>0.0946969696969697</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04195804195804196</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01398601398601399</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6923076923076923</v>
+        <v>0.7018633540372671</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2517482517482518</v>
+        <v>0.2360248447204969</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5161290322580645</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4516129032258064</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06194690265486726</v>
+        <v>0.06</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01769911504424779</v>
+        <v>0.016</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06194690265486726</v>
+        <v>0.06</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2389380530973451</v>
+        <v>0.244</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02212389380530973</v>
+        <v>0.024</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1814159292035398</v>
+        <v>0.188</v>
       </c>
       <c r="R6">
-        <v>0.07079646017699115</v>
+        <v>0.068</v>
       </c>
       <c r="S6">
-        <v>0.3451327433628318</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07407407407407407</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005291005291005291</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="E7">
-        <v>0.005291005291005291</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F7">
-        <v>0.06349206349206349</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1322751322751323</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04232804232804233</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1746031746031746</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="R7">
-        <v>0.08994708994708994</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="S7">
-        <v>0.4126984126984127</v>
+        <v>0.4086538461538461</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08230452674897119</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01646090534979424</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E8">
-        <v>0.00205761316872428</v>
+        <v>0.001838235294117647</v>
       </c>
       <c r="F8">
-        <v>0.06995884773662552</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.102880658436214</v>
+        <v>0.09742647058823529</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02263374485596708</v>
+        <v>0.02022058823529412</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1975308641975309</v>
+        <v>0.2022058823529412</v>
       </c>
       <c r="R8">
-        <v>0.09465020576131687</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S8">
-        <v>0.411522633744856</v>
+        <v>0.4172794117647059</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0935672514619883</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01169590643274854</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07017543859649122</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08187134502923976</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005847953216374269</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.152046783625731</v>
+        <v>0.1606217616580311</v>
       </c>
       <c r="R9">
-        <v>0.09941520467836257</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="S9">
-        <v>0.4853801169590643</v>
+        <v>0.4818652849740933</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0971843778383288</v>
+        <v>0.09818481848184818</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0145322434150772</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="F10">
-        <v>0.07356948228882834</v>
+        <v>0.07178217821782178</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1080835603996367</v>
+        <v>0.1047854785478548</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01544050862851953</v>
+        <v>0.01402640264026403</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2098092643051771</v>
+        <v>0.2194719471947195</v>
       </c>
       <c r="R10">
-        <v>0.07720254314259764</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="S10">
-        <v>0.4041780199818347</v>
+        <v>0.4018151815181518</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.003236245954692557</v>
       </c>
       <c r="G11">
-        <v>0.1684981684981685</v>
+        <v>0.1682847896440129</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07692307692307693</v>
+        <v>0.07443365695792881</v>
       </c>
       <c r="K11">
-        <v>0.2014652014652015</v>
+        <v>0.2038834951456311</v>
       </c>
       <c r="L11">
-        <v>0.5457875457875457</v>
+        <v>0.540453074433657</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007326007326007326</v>
+        <v>0.009708737864077669</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7748344370860927</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1589403973509934</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05960264900662252</v>
+        <v>0.05294117647058823</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6938775510204082</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2448979591836735</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06122448979591837</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02314814814814815</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1481481481481481</v>
+        <v>0.1567796610169492</v>
       </c>
       <c r="I15">
-        <v>0.06481481481481481</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="J15">
-        <v>0.3842592592592592</v>
+        <v>0.3813559322033898</v>
       </c>
       <c r="K15">
-        <v>0.05092592592592592</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02777777777777778</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04629629629629629</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2546296296296297</v>
+        <v>0.2457627118644068</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01388888888888889</v>
+        <v>0.0125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1458333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="I16">
-        <v>0.0763888888888889</v>
+        <v>0.075</v>
       </c>
       <c r="J16">
-        <v>0.3472222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.1625</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01388888888888889</v>
+        <v>0.01875</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.05625</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1805555555555556</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02612826603325416</v>
+        <v>0.03099173553719008</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1971496437054632</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="I17">
-        <v>0.08788598574821853</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="J17">
-        <v>0.3752969121140142</v>
+        <v>0.3739669421487603</v>
       </c>
       <c r="K17">
-        <v>0.08551068883610451</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02375296912114014</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06888361045130641</v>
+        <v>0.07231404958677685</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1353919239904988</v>
+        <v>0.134297520661157</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01104972375690608</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2154696132596685</v>
+        <v>0.2124352331606218</v>
       </c>
       <c r="I18">
-        <v>0.08287292817679558</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="J18">
-        <v>0.3867403314917127</v>
+        <v>0.3782383419689119</v>
       </c>
       <c r="K18">
-        <v>0.08839779005524862</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03314917127071823</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="N18">
-        <v>0.005524861878453038</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="O18">
-        <v>0.05524861878453038</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1215469613259668</v>
+        <v>0.1191709844559585</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02017067494181536</v>
+        <v>0.01905434015525759</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2451512800620636</v>
+        <v>0.2491178546224418</v>
       </c>
       <c r="I19">
-        <v>0.07214895267649341</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="J19">
-        <v>0.3328161365399535</v>
+        <v>0.3323923782639379</v>
       </c>
       <c r="K19">
-        <v>0.09930178432893716</v>
+        <v>0.100211714890614</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02094647013188518</v>
+        <v>0.02117148906139732</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07137315748642359</v>
+        <v>0.068454481298518</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1380915438324282</v>
+        <v>0.1362032462949894</v>
       </c>
     </row>
   </sheetData>
